--- a/DebugFile.xlsx
+++ b/DebugFile.xlsx
@@ -14,39 +14,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <x:si>
-    <x:t>asdasd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdsad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/24/2022 6:56:24 PM</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <x:si>
+    <x:t>ZoneNameUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZoneDescriptionUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 8:21:16 PM</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/edit.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/0daf896a-b55a-4a67-b5bc-ff747e1b3238</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/160f93a1-5bf4-4b75-a93c-d774802f59f7</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/details.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/0daf896a-b55a-4a67-b5bc-ff747e1b3238</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/160f93a1-5bf4-4b75-a93c-d774802f59f7</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/delete.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/0daf896a-b55a-4a67-b5bc-ff747e1b3238</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/160f93a1-5bf4-4b75-a93c-d774802f59f7</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Details/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Delete/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boilermaker RoomUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-870 - Sculpture/OrnamentalUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 8:15:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 8:14:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/efca46e9-6b5b-4212-95fe-83cc86bef3ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/efca46e9-6b5b-4212-95fe-83cc86bef3ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/efca46e9-6b5b-4212-95fe-83cc86bef3ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Safety OfficeUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-030 - BondUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 7:20:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/4201f294-c200-4e75-b4ac-6a45151601c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/4201f294-c200-4e75-b4ac-6a45151601c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/4201f294-c200-4e75-b4ac-6a45151601c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tile Setting BenchUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-570 - Temporary ControlsUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 7:21:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d62a79c8-7968-40d0-bee9-943c0983752e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d62a79c8-7968-40d0-bee9-943c0983752e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d62a79c8-7968-40d0-bee9-943c0983752e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 7:20:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/48dc1bd2-caf3-4282-a254-a674fafc42ec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/48dc1bd2-caf3-4282-a254-a674fafc42ec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/48dc1bd2-caf3-4282-a254-a674fafc42ec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Labor OfficeUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-523 - Sanitary FacilitiesUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 7:21:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/0dca1b39-6e01-423f-a734-c56f12ca7b53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/0dca1b39-6e01-423f-a734-c56f12ca7b53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/0dca1b39-6e01-423f-a734-c56f12ca7b53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stucco Mason BuildingUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-750 - Concrete Pads and WalksUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 7:20:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/1122805a-abbc-4fc5-85c1-ef88b3cd4e2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/1122805a-abbc-4fc5-85c1-ef88b3cd4e2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/1122805a-abbc-4fc5-85c1-ef88b3cd4e2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 7:20:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/1c39bed7-abd1-4430-9551-ff464a872b2b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/1c39bed7-abd1-4430-9551-ff464a872b2b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/1c39bed7-abd1-4430-9551-ff464a872b2b</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -441,6 +567,238 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:16">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:16">
+      <x:c r="A3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:16">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:16">
+      <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:16">
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:16">
+      <x:c r="A7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:16">
+      <x:c r="A8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:16">
+      <x:c r="A9" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/DebugFile.xlsx
+++ b/DebugFile.xlsx
@@ -14,57 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <x:si>
+    <x:t>CameraUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Visual monitoring toolUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 9:42:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/edit.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Categories/Edit/bcf1c05b-cd83-42a2-a2e6-c8ea769650d3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/details.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Categories/Details/bcf1c05b-cd83-42a2-a2e6-c8ea769650d3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/delete.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Categories/Delete/bcf1c05b-cd83-42a2-a2e6-c8ea769650d3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Details/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Delete/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boilermaker RoomUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-870 - Sculpture/OrnamentalUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/25/2022 8:15:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
+  </x:si>
   <x:si>
     <x:t>ZoneNameUpdated</x:t>
   </x:si>
   <x:si>
     <x:t>ZoneDescriptionUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 8:21:16 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/edit.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/160f93a1-5bf4-4b75-a93c-d774802f59f7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/details.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/160f93a1-5bf4-4b75-a93c-d774802f59f7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/delete.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/160f93a1-5bf4-4b75-a93c-d774802f59f7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Details/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Delete/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boilermaker RoomUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-870 - Sculpture/OrnamentalUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 8:15:04 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
   </x:si>
   <x:si>
     <x:t>10/25/2022 8:14:53 PM</x:t>
@@ -598,89 +604,89 @@
     </x:row>
     <x:row r="3" spans="1:16">
       <x:c r="A3" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16">
       <x:c r="A4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16">
       <x:c r="A5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16">
@@ -691,112 +697,112 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16">
       <x:c r="A7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:16">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:16">
       <x:c r="A9" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DebugFile.xlsx
+++ b/DebugFile.xlsx
@@ -14,171 +14,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <x:si>
-    <x:t>CameraUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Visual monitoring toolUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 9:42:00 PM</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <x:si>
+    <x:t>Labor Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-523 - Sanitary Facilities</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:46 PM</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/edit.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Categories/Edit/bcf1c05b-cd83-42a2-a2e6-c8ea769650d3</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/c97f0116-209c-4529-99f5-06b8f7ac890f</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/details.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Categories/Details/bcf1c05b-cd83-42a2-a2e6-c8ea769650d3</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/c97f0116-209c-4529-99f5-06b8f7ac890f</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/delete.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Categories/Delete/bcf1c05b-cd83-42a2-a2e6-c8ea769650d3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Details/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Delete/6c8c8366-a8dc-4ed1-82a2-f2ef67cd97a5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boilermaker RoomUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-870 - Sculpture/OrnamentalUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 8:15:04 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d554a358-e10f-4d98-8c93-62bd2d1c5d46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZoneNameUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZoneDescriptionUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 8:14:53 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/efca46e9-6b5b-4212-95fe-83cc86bef3ba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/efca46e9-6b5b-4212-95fe-83cc86bef3ba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/efca46e9-6b5b-4212-95fe-83cc86bef3ba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Safety OfficeUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-030 - BondUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 7:20:45 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/4201f294-c200-4e75-b4ac-6a45151601c2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/4201f294-c200-4e75-b4ac-6a45151601c2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/4201f294-c200-4e75-b4ac-6a45151601c2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tile Setting BenchUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-570 - Temporary ControlsUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 7:21:11 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d62a79c8-7968-40d0-bee9-943c0983752e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d62a79c8-7968-40d0-bee9-943c0983752e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d62a79c8-7968-40d0-bee9-943c0983752e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 7:20:40 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/48dc1bd2-caf3-4282-a254-a674fafc42ec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/48dc1bd2-caf3-4282-a254-a674fafc42ec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/48dc1bd2-caf3-4282-a254-a674fafc42ec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Labor OfficeUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-523 - Sanitary FacilitiesUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 7:21:01 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/0dca1b39-6e01-423f-a734-c56f12ca7b53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/0dca1b39-6e01-423f-a734-c56f12ca7b53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/0dca1b39-6e01-423f-a734-c56f12ca7b53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stucco Mason BuildingUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-750 - Concrete Pads and WalksUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 7:20:51 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/1122805a-abbc-4fc5-85c1-ef88b3cd4e2a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/1122805a-abbc-4fc5-85c1-ef88b3cd4e2a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/1122805a-abbc-4fc5-85c1-ef88b3cd4e2a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/25/2022 7:20:30 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/1c39bed7-abd1-4430-9551-ff464a872b2b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/1c39bed7-abd1-4430-9551-ff464a872b2b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/1c39bed7-abd1-4430-9551-ff464a872b2b</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/c97f0116-209c-4529-99f5-06b8f7ac890f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Details/c03ccdcf-87ef-463f-9a7e-69ff9d5df8f0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Delete/c03ccdcf-87ef-463f-9a7e-69ff9d5df8f0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iron Workshop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-400 - Precast Concrete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/566d548e-c476-4f24-aa9b-5399d0cba528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/566d548e-c476-4f24-aa9b-5399d0cba528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/566d548e-c476-4f24-aa9b-5399d0cba528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Terrazzo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-175 - Ice Rinks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/86f51092-8bca-46c9-a3fa-7ed6b3d70885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/86f51092-8bca-46c9-a3fa-7ed6b3d70885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/86f51092-8bca-46c9-a3fa-7ed6b3d70885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tile Setting Bench</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-570 - Temporary Controls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/24e10a20-d821-4948-95a1-a8fa4d8413b6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/24e10a20-d821-4948-95a1-a8fa4d8413b6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/24e10a20-d821-4948-95a1-a8fa4d8413b6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Environmental Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-370 - Erosion and Sedimentation Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/dea198e1-a276-4e61-bbcb-ad32bc164fde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/dea198e1-a276-4e61-bbcb-ad32bc164fde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/dea198e1-a276-4e61-bbcb-ad32bc164fde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boilermaker Room</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-870 - Sculpture/Ornamental</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/771ccd04-4a05-409f-bc98-b4273928ef2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/771ccd04-4a05-409f-bc98-b4273928ef2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/771ccd04-4a05-409f-bc98-b4273928ef2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Safety Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-030 - Bond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/c9e3b217-595f-4ec7-942c-cbd76eb7aeac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/c9e3b217-595f-4ec7-942c-cbd76eb7aeac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/c9e3b217-595f-4ec7-942c-cbd76eb7aeac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stucco Mason Building</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-750 - Concrete Pads and Walks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/964895a6-cf58-4cb4-b31c-d88f83596eb5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/964895a6-cf58-4cb4-b31c-d88f83596eb5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/964895a6-cf58-4cb4-b31c-d88f83596eb5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Linemen Assembly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-825 - Wood Fences and Gates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:27:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/0dd96d1f-9a74-4f13-8c07-e5bc1c2a9231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/0dd96d1f-9a74-4f13-8c07-e5bc1c2a9231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/0dd96d1f-9a74-4f13-8c07-e5bc1c2a9231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 12:47:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/574a744f-6dc2-46f3-8788-ee7f98e292a2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/574a744f-6dc2-46f3-8788-ee7f98e292a2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/574a744f-6dc2-46f3-8788-ee7f98e292a2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -691,118 +715,147 @@
     </x:row>
     <x:row r="6" spans="1:16">
       <x:c r="A6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16">
       <x:c r="A7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:16">
       <x:c r="A8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:16">
       <x:c r="A9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="L9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:16">
+      <x:c r="A10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DebugFile.xlsx
+++ b/DebugFile.xlsx
@@ -16,55 +16,145 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
+    <x:t>Environmental Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-370 - Erosion and Sedimentation Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:33:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/edit.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/2eb1eb7b-c801-4e4d-9ee4-29ab0d1f95dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/details.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/2eb1eb7b-c801-4e4d-9ee4-29ab0d1f95dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/delete.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/2eb1eb7b-c801-4e4d-9ee4-29ab0d1f95dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Details/c03ccdcf-87ef-463f-9a7e-69ff9d5df8f0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Delete/c03ccdcf-87ef-463f-9a7e-69ff9d5df8f0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iron Workshop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-400 - Precast Concrete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:33:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/8e0403cc-a52e-425c-9fad-2bd471185aef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/8e0403cc-a52e-425c-9fad-2bd471185aef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/8e0403cc-a52e-425c-9fad-2bd471185aef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Linemen Assembly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-825 - Wood Fences and Gates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:33:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/416878b0-cd91-43f5-a4d1-34b054c933a8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/416878b0-cd91-43f5-a4d1-34b054c933a8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/416878b0-cd91-43f5-a4d1-34b054c933a8</x:t>
+  </x:si>
+  <x:si>
     <x:t>Labor Office</x:t>
   </x:si>
   <x:si>
     <x:t>1-523 - Sanitary Facilities</x:t>
   </x:si>
   <x:si>
-    <x:t>10/26/2022 1:27:46 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/edit.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/c97f0116-209c-4529-99f5-06b8f7ac890f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/details.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/c97f0116-209c-4529-99f5-06b8f7ac890f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/delete.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/c97f0116-209c-4529-99f5-06b8f7ac890f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Details/c03ccdcf-87ef-463f-9a7e-69ff9d5df8f0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Devices/Delete/c03ccdcf-87ef-463f-9a7e-69ff9d5df8f0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iron Workshop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-400 - Precast Concrete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/26/2022 1:27:43 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/566d548e-c476-4f24-aa9b-5399d0cba528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/566d548e-c476-4f24-aa9b-5399d0cba528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/566d548e-c476-4f24-aa9b-5399d0cba528</x:t>
+    <x:t>10/26/2022 1:33:10 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/db238fb9-7fb3-480e-923b-49fe478ecf31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/db238fb9-7fb3-480e-923b-49fe478ecf31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/db238fb9-7fb3-480e-923b-49fe478ecf31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stucco Mason Building</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-750 - Concrete Pads and Walks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:33:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/90000adf-d80e-4afb-8b9e-80512114c608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/90000adf-d80e-4afb-8b9e-80512114c608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/90000adf-d80e-4afb-8b9e-80512114c608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tile Setting Bench</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-570 - Temporary Controls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:33:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d1b1b428-da30-47db-ba9a-a0195a14b94e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d1b1b428-da30-47db-ba9a-a0195a14b94e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d1b1b428-da30-47db-ba9a-a0195a14b94e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Safety Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-030 - Bond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/26/2022 1:33:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/6e17a1ab-3f37-4e32-a04f-bb2b75e746f6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/6e17a1ab-3f37-4e32-a04f-bb2b75e746f6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/6e17a1ab-3f37-4e32-a04f-bb2b75e746f6</x:t>
   </x:si>
   <x:si>
     <x:t>Terrazzo</x:t>
@@ -73,52 +163,16 @@
     <x:t>13-175 - Ice Rinks</x:t>
   </x:si>
   <x:si>
-    <x:t>10/26/2022 1:27:32 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/86f51092-8bca-46c9-a3fa-7ed6b3d70885</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/86f51092-8bca-46c9-a3fa-7ed6b3d70885</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/86f51092-8bca-46c9-a3fa-7ed6b3d70885</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tile Setting Bench</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-570 - Temporary Controls</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/26/2022 1:27:52 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/24e10a20-d821-4948-95a1-a8fa4d8413b6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/24e10a20-d821-4948-95a1-a8fa4d8413b6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/24e10a20-d821-4948-95a1-a8fa4d8413b6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Environmental Office</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-370 - Erosion and Sedimentation Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/26/2022 1:27:49 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/dea198e1-a276-4e61-bbcb-ad32bc164fde</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/dea198e1-a276-4e61-bbcb-ad32bc164fde</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/dea198e1-a276-4e61-bbcb-ad32bc164fde</x:t>
+    <x:t>10/26/2022 1:32:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/ae86d260-5803-4eab-84c3-e24ace32fe96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/ae86d260-5803-4eab-84c3-e24ace32fe96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/ae86d260-5803-4eab-84c3-e24ace32fe96</x:t>
   </x:si>
   <x:si>
     <x:t>Boilermaker Room</x:t>
@@ -127,70 +181,16 @@
     <x:t>2-870 - Sculpture/Ornamental</x:t>
   </x:si>
   <x:si>
-    <x:t>10/26/2022 1:27:35 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/771ccd04-4a05-409f-bc98-b4273928ef2a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/771ccd04-4a05-409f-bc98-b4273928ef2a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/771ccd04-4a05-409f-bc98-b4273928ef2a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Safety Office</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-030 - Bond</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/26/2022 1:27:37 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/c9e3b217-595f-4ec7-942c-cbd76eb7aeac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/c9e3b217-595f-4ec7-942c-cbd76eb7aeac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/c9e3b217-595f-4ec7-942c-cbd76eb7aeac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stucco Mason Building</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-750 - Concrete Pads and Walks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/26/2022 1:27:40 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/964895a6-cf58-4cb4-b31c-d88f83596eb5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/964895a6-cf58-4cb4-b31c-d88f83596eb5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/964895a6-cf58-4cb4-b31c-d88f83596eb5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linemen Assembly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-825 - Wood Fences and Gates</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/26/2022 1:27:55 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/0dd96d1f-9a74-4f13-8c07-e5bc1c2a9231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/0dd96d1f-9a74-4f13-8c07-e5bc1c2a9231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/0dd96d1f-9a74-4f13-8c07-e5bc1c2a9231</x:t>
+    <x:t>10/26/2022 1:32:58 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/da0baed7-c8af-4ccb-9369-fb8877262df0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/da0baed7-c8af-4ccb-9369-fb8877262df0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/da0baed7-c8af-4ccb-9369-fb8877262df0</x:t>
   </x:si>
   <x:si>
     <x:t>10/26/2022 12:47:45 PM</x:t>
@@ -831,10 +831,10 @@
     </x:row>
     <x:row r="10" spans="1:16">
       <x:c r="A10" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>59</x:v>
